--- a/Ke_Hoach_Nhom1.xlsx
+++ b/Ke_Hoach_Nhom1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TLCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\TLCN_WebsiteChiaSeHinhAnh_Nhom1_K17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F7A9C-E550-447F-B362-DF7ADF053BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44965F2A-2A2C-4F3A-8F17-295C67256E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{50C16379-ADEF-49C7-8C91-EDDCF27DB62C}"/>
   </bookViews>
@@ -308,14 +308,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379C4FA-92D2-42E6-81BA-42D253F11961}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,16 +773,16 @@
         <v>44083</v>
       </c>
       <c r="I6" s="8">
-        <v>44085</v>
+        <v>44096</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -802,8 +802,8 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -821,8 +821,8 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -840,10 +840,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="14">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -863,8 +863,8 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
@@ -928,10 +928,10 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -951,8 +951,8 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
@@ -966,8 +966,8 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
@@ -981,8 +981,8 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
@@ -996,8 +996,8 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1011,8 +1011,8 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1041,8 +1041,8 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
@@ -1056,8 +1056,8 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1071,8 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1086,8 +1086,8 @@
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1101,8 +1101,8 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1116,8 +1116,8 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1131,8 +1131,8 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1144,8 +1144,8 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1157,8 +1157,8 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1170,10 +1170,10 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1193,8 +1193,8 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1208,8 +1208,8 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
         <v>28</v>
       </c>
@@ -1223,8 +1223,8 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1238,8 +1238,8 @@
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
@@ -1253,8 +1253,8 @@
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1268,8 +1268,8 @@
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1283,8 +1283,8 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="5" t="s">
         <v>36</v>
       </c>
@@ -1298,8 +1298,8 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2" t="s">
         <v>30</v>
       </c>
@@ -1313,8 +1313,8 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1328,8 +1328,8 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1343,8 +1343,8 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1358,8 +1358,8 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1386,8 +1386,8 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1399,10 +1399,10 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="14">
         <v>8</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1422,8 +1422,8 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1441,8 +1441,8 @@
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1475,10 +1475,10 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="14">
         <v>9</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
@@ -1496,9 +1496,9 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="1"/>
@@ -1515,8 +1515,8 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
@@ -1534,8 +1534,8 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="2" t="s">
         <v>47</v>
       </c>

--- a/Ke_Hoach_Nhom1.xlsx
+++ b/Ke_Hoach_Nhom1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\TLCN_WebsiteChiaSeHinhAnh_Nhom1_K17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44965F2A-2A2C-4F3A-8F17-295C67256E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D60E3-8D30-4CFB-B488-246C5E926842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{50C16379-ADEF-49C7-8C91-EDDCF27DB62C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Chỉnh sửa theo hướng dẫn của thầy</t>
+  </si>
+  <si>
+    <t>/9/2020</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1379C4FA-92D2-42E6-81BA-42D253F11961}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -772,8 +775,8 @@
       <c r="H6" s="8">
         <v>44083</v>
       </c>
-      <c r="I6" s="8">
-        <v>44096</v>
+      <c r="I6" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1504,7 +1507,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="8">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="G50" s="8">
         <v>44189</v>
